--- a/anova_results_mp_PFOS.xlsx
+++ b/anova_results_mp_PFOS.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>4.23068553679136</v>
+        <v>4206.43191774833</v>
       </c>
       <c r="C2" t="n">
-        <v>4.23068553679136</v>
+        <v>4206.43191774833</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9999999999182</v>
+        <v>4.26503958554266</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28030909064629</v>
+        <v>15.4251996513732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.060807242928055</v>
+        <v>0.015143661246159</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.886839132082113</v>
+        <v>9914.59802187379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.443419566041056</v>
+        <v>4957.2990109369</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9999999999183</v>
+        <v>6.43189762896092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.448620627316922</v>
+        <v>18.178667447966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.648793564783192</v>
+        <v>0.00225573981093597</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>5.06032083390233</v>
+        <v>1665.83572922646</v>
       </c>
       <c r="C4" t="n">
-        <v>2.53016041695116</v>
+        <v>832.917864613229</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9999999999183</v>
+        <v>6.43189762911405</v>
       </c>
       <c r="F4" t="n">
-        <v>2.55983777080323</v>
+        <v>3.05435214597076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.118608086423496</v>
+        <v>0.116799651479479</v>
       </c>
     </row>
   </sheetData>
